--- a/docs/Gantt CHart- Cargill team -P (1).xlsx
+++ b/docs/Gantt CHart- Cargill team -P (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saleksegid/Desktop/UW/CHEME 547/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liwenxing/capstone/ADME-modeling-for-Cargill/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB545083-9079-7148-A6CF-4CDE02BE861D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CACA8-1DAE-AB4C-B61A-BE7E5DD48ECB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20800" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>wrap up</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Train &amp; test</t>
   </si>
   <si>
-    <t>Optimze</t>
-  </si>
-  <si>
     <t>Unit testing</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t>Cargill</t>
+  </si>
+  <si>
+    <t>Salek</t>
+  </si>
+  <si>
+    <t>Optimize</t>
   </si>
 </sst>
 </file>
@@ -334,11 +337,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,8 +349,11 @@
     <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147E2E5-D6DC-A843-8386-582CF7CF9F72}">
   <dimension ref="A1:DN26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -696,10 +699,10 @@
   <sheetData>
     <row r="1" spans="1:118" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,10 +711,10 @@
     </row>
     <row r="2" spans="1:118" ht="25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -770,157 +773,157 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="26">
         <v>44290</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="14" spans="1:118" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <f>G15</f>
         <v>44290</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23">
         <f t="shared" ref="N14" si="0">N15</f>
         <v>44297</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="24">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="23">
         <f t="shared" ref="U14" si="1">U15</f>
         <v>44304</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="24">
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="23">
         <f t="shared" ref="AB14" si="2">AB15</f>
         <v>44311</v>
       </c>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="24">
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="23">
         <f t="shared" ref="AI14" si="3">AI15</f>
         <v>44318</v>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="24">
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="23">
         <f t="shared" ref="AP14" si="4">AP15</f>
         <v>44325</v>
       </c>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="24">
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="23">
         <f t="shared" ref="AW14" si="5">AW15</f>
         <v>44332</v>
       </c>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="24">
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="23">
         <f t="shared" ref="BD14" si="6">BD15</f>
         <v>44339</v>
       </c>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="24">
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="23">
         <f>BK15</f>
         <v>44346</v>
       </c>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="26"/>
-      <c r="BR14" s="24">
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="23">
         <f t="shared" ref="BR14" si="7">BR15</f>
         <v>44353</v>
       </c>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="25"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="BX14" s="26"/>
-      <c r="BY14" s="24">
+      <c r="BS14" s="24"/>
+      <c r="BT14" s="24"/>
+      <c r="BU14" s="24"/>
+      <c r="BV14" s="24"/>
+      <c r="BW14" s="24"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="23">
         <f t="shared" ref="BY14" si="8">BY15</f>
         <v>44360</v>
       </c>
-      <c r="BZ14" s="25"/>
-      <c r="CA14" s="25"/>
-      <c r="CB14" s="25"/>
-      <c r="CC14" s="25"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="26"/>
-      <c r="CF14" s="27"/>
-      <c r="CG14" s="27"/>
-      <c r="CH14" s="27"/>
-      <c r="CI14" s="27"/>
-      <c r="CJ14" s="27"/>
-      <c r="CK14" s="27"/>
-      <c r="CL14" s="27"/>
-      <c r="CM14" s="27"/>
-      <c r="CN14" s="27"/>
-      <c r="CO14" s="27"/>
-      <c r="CP14" s="27"/>
-      <c r="CQ14" s="27"/>
-      <c r="CR14" s="27"/>
-      <c r="CS14" s="27"/>
-      <c r="CT14" s="27"/>
-      <c r="CU14" s="27"/>
-      <c r="CV14" s="27"/>
-      <c r="CW14" s="27"/>
-      <c r="CX14" s="27"/>
-      <c r="CY14" s="27"/>
-      <c r="CZ14" s="27"/>
-      <c r="DA14" s="27"/>
-      <c r="DB14" s="27"/>
-      <c r="DC14" s="27"/>
-      <c r="DD14" s="27"/>
-      <c r="DE14" s="27"/>
-      <c r="DF14" s="27"/>
-      <c r="DG14" s="27"/>
-      <c r="DH14" s="27"/>
-      <c r="DI14" s="27"/>
-      <c r="DJ14" s="27"/>
-      <c r="DK14" s="27"/>
-      <c r="DL14" s="27"/>
-      <c r="DM14" s="27"/>
-      <c r="DN14" s="27"/>
+      <c r="BZ14" s="24"/>
+      <c r="CA14" s="24"/>
+      <c r="CB14" s="24"/>
+      <c r="CC14" s="24"/>
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="25"/>
+      <c r="CF14" s="22"/>
+      <c r="CG14" s="22"/>
+      <c r="CH14" s="22"/>
+      <c r="CI14" s="22"/>
+      <c r="CJ14" s="22"/>
+      <c r="CK14" s="22"/>
+      <c r="CL14" s="22"/>
+      <c r="CM14" s="22"/>
+      <c r="CN14" s="22"/>
+      <c r="CO14" s="22"/>
+      <c r="CP14" s="22"/>
+      <c r="CQ14" s="22"/>
+      <c r="CR14" s="22"/>
+      <c r="CS14" s="22"/>
+      <c r="CT14" s="22"/>
+      <c r="CU14" s="22"/>
+      <c r="CV14" s="22"/>
+      <c r="CW14" s="22"/>
+      <c r="CX14" s="22"/>
+      <c r="CY14" s="22"/>
+      <c r="CZ14" s="22"/>
+      <c r="DA14" s="22"/>
+      <c r="DB14" s="22"/>
+      <c r="DC14" s="22"/>
+      <c r="DD14" s="22"/>
+      <c r="DE14" s="22"/>
+      <c r="DF14" s="22"/>
+      <c r="DG14" s="22"/>
+      <c r="DH14" s="22"/>
+      <c r="DI14" s="22"/>
+      <c r="DJ14" s="22"/>
+      <c r="DK14" s="22"/>
+      <c r="DL14" s="22"/>
+      <c r="DM14" s="22"/>
+      <c r="DN14" s="22"/>
     </row>
     <row r="15" spans="1:118" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1275,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>2</v>
@@ -1883,16 +1886,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="19">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="9">
         <v>44300</v>
       </c>
       <c r="E19" s="9">
-        <v>44307</v>
+        <v>44321</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
@@ -2013,10 +2016,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9">
         <v>44308</v>
@@ -2142,9 +2145,11 @@
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D21" s="9">
         <v>44307</v>
@@ -2396,7 +2401,7 @@
     </row>
     <row r="23" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="19">
@@ -2524,7 +2529,7 @@
     </row>
     <row r="24" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="19">
@@ -2908,12 +2913,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CM14:CS14"/>
-    <mergeCell ref="CT14:CZ14"/>
-    <mergeCell ref="DA14:DG14"/>
-    <mergeCell ref="DH14:DN14"/>
-    <mergeCell ref="BY14:CE14"/>
-    <mergeCell ref="CF14:CL14"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="BD14:BJ14"/>
@@ -2925,6 +2924,12 @@
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="AI14:AO14"/>
     <mergeCell ref="AP14:AV14"/>
+    <mergeCell ref="CM14:CS14"/>
+    <mergeCell ref="CT14:CZ14"/>
+    <mergeCell ref="DA14:DG14"/>
+    <mergeCell ref="DH14:DN14"/>
+    <mergeCell ref="BY14:CE14"/>
+    <mergeCell ref="CF14:CL14"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:CE26">
     <cfRule type="expression" dxfId="0" priority="2">

--- a/docs/Gantt CHart- Cargill team -P (1).xlsx
+++ b/docs/Gantt CHart- Cargill team -P (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liwenxing/capstone/ADME-modeling-for-Cargill/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/Capstone-Cargill/ADME-modeling-for-Cargill/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CACA8-1DAE-AB4C-B61A-BE7E5DD48ECB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B22FA9-ECED-1240-BEC1-8C31CC6F2A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
   </bookViews>
@@ -337,8 +337,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,11 +352,8 @@
     <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147E2E5-D6DC-A843-8386-582CF7CF9F72}">
   <dimension ref="A1:DN26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -773,157 +773,157 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>44290</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="14" spans="1:118" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <f>G15</f>
         <v>44290</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="23">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24">
         <f t="shared" ref="N14" si="0">N15</f>
         <v>44297</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="23">
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="24">
         <f t="shared" ref="U14" si="1">U15</f>
         <v>44304</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="23">
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="24">
         <f t="shared" ref="AB14" si="2">AB15</f>
         <v>44311</v>
       </c>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="23">
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="24">
         <f t="shared" ref="AI14" si="3">AI15</f>
         <v>44318</v>
       </c>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="23">
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="24">
         <f t="shared" ref="AP14" si="4">AP15</f>
         <v>44325</v>
       </c>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="23">
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="24">
         <f t="shared" ref="AW14" si="5">AW15</f>
         <v>44332</v>
       </c>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="23">
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="24">
         <f t="shared" ref="BD14" si="6">BD15</f>
         <v>44339</v>
       </c>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="23">
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="24">
         <f>BK15</f>
         <v>44346</v>
       </c>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="24"/>
-      <c r="BO14" s="24"/>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="25"/>
-      <c r="BR14" s="23">
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="24">
         <f t="shared" ref="BR14" si="7">BR15</f>
         <v>44353</v>
       </c>
-      <c r="BS14" s="24"/>
-      <c r="BT14" s="24"/>
-      <c r="BU14" s="24"/>
-      <c r="BV14" s="24"/>
-      <c r="BW14" s="24"/>
-      <c r="BX14" s="25"/>
-      <c r="BY14" s="23">
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="24">
         <f t="shared" ref="BY14" si="8">BY15</f>
         <v>44360</v>
       </c>
-      <c r="BZ14" s="24"/>
-      <c r="CA14" s="24"/>
-      <c r="CB14" s="24"/>
-      <c r="CC14" s="24"/>
-      <c r="CD14" s="24"/>
-      <c r="CE14" s="25"/>
-      <c r="CF14" s="22"/>
-      <c r="CG14" s="22"/>
-      <c r="CH14" s="22"/>
-      <c r="CI14" s="22"/>
-      <c r="CJ14" s="22"/>
-      <c r="CK14" s="22"/>
-      <c r="CL14" s="22"/>
-      <c r="CM14" s="22"/>
-      <c r="CN14" s="22"/>
-      <c r="CO14" s="22"/>
-      <c r="CP14" s="22"/>
-      <c r="CQ14" s="22"/>
-      <c r="CR14" s="22"/>
-      <c r="CS14" s="22"/>
-      <c r="CT14" s="22"/>
-      <c r="CU14" s="22"/>
-      <c r="CV14" s="22"/>
-      <c r="CW14" s="22"/>
-      <c r="CX14" s="22"/>
-      <c r="CY14" s="22"/>
-      <c r="CZ14" s="22"/>
-      <c r="DA14" s="22"/>
-      <c r="DB14" s="22"/>
-      <c r="DC14" s="22"/>
-      <c r="DD14" s="22"/>
-      <c r="DE14" s="22"/>
-      <c r="DF14" s="22"/>
-      <c r="DG14" s="22"/>
-      <c r="DH14" s="22"/>
-      <c r="DI14" s="22"/>
-      <c r="DJ14" s="22"/>
-      <c r="DK14" s="22"/>
-      <c r="DL14" s="22"/>
-      <c r="DM14" s="22"/>
-      <c r="DN14" s="22"/>
+      <c r="BZ14" s="25"/>
+      <c r="CA14" s="25"/>
+      <c r="CB14" s="25"/>
+      <c r="CC14" s="25"/>
+      <c r="CD14" s="25"/>
+      <c r="CE14" s="26"/>
+      <c r="CF14" s="27"/>
+      <c r="CG14" s="27"/>
+      <c r="CH14" s="27"/>
+      <c r="CI14" s="27"/>
+      <c r="CJ14" s="27"/>
+      <c r="CK14" s="27"/>
+      <c r="CL14" s="27"/>
+      <c r="CM14" s="27"/>
+      <c r="CN14" s="27"/>
+      <c r="CO14" s="27"/>
+      <c r="CP14" s="27"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="27"/>
+      <c r="CS14" s="27"/>
+      <c r="CT14" s="27"/>
+      <c r="CU14" s="27"/>
+      <c r="CV14" s="27"/>
+      <c r="CW14" s="27"/>
+      <c r="CX14" s="27"/>
+      <c r="CY14" s="27"/>
+      <c r="CZ14" s="27"/>
+      <c r="DA14" s="27"/>
+      <c r="DB14" s="27"/>
+      <c r="DC14" s="27"/>
+      <c r="DD14" s="27"/>
+      <c r="DE14" s="27"/>
+      <c r="DF14" s="27"/>
+      <c r="DG14" s="27"/>
+      <c r="DH14" s="27"/>
+      <c r="DI14" s="27"/>
+      <c r="DJ14" s="27"/>
+      <c r="DK14" s="27"/>
+      <c r="DL14" s="27"/>
+      <c r="DM14" s="27"/>
+      <c r="DN14" s="27"/>
     </row>
     <row r="15" spans="1:118" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1889,13 +1889,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="19">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="D19" s="9">
         <v>44300</v>
       </c>
       <c r="E19" s="9">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
@@ -2149,13 +2149,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="19">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="9">
         <v>44307</v>
       </c>
       <c r="E21" s="9">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -2283,7 +2283,7 @@
         <v>44321</v>
       </c>
       <c r="E22" s="9">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -2411,7 +2411,7 @@
         <v>44328</v>
       </c>
       <c r="E23" s="9">
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -2913,6 +2913,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CM14:CS14"/>
+    <mergeCell ref="CT14:CZ14"/>
+    <mergeCell ref="DA14:DG14"/>
+    <mergeCell ref="DH14:DN14"/>
+    <mergeCell ref="BY14:CE14"/>
+    <mergeCell ref="CF14:CL14"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="BD14:BJ14"/>
@@ -2924,12 +2930,6 @@
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="AI14:AO14"/>
     <mergeCell ref="AP14:AV14"/>
-    <mergeCell ref="CM14:CS14"/>
-    <mergeCell ref="CT14:CZ14"/>
-    <mergeCell ref="DA14:DG14"/>
-    <mergeCell ref="DH14:DN14"/>
-    <mergeCell ref="BY14:CE14"/>
-    <mergeCell ref="CF14:CL14"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:CE26">
     <cfRule type="expression" dxfId="0" priority="2">

--- a/docs/Gantt CHart- Cargill team -P (1).xlsx
+++ b/docs/Gantt CHart- Cargill team -P (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/Capstone-Cargill/ADME-modeling-for-Cargill/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liwenxing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B22FA9-ECED-1240-BEC1-8C31CC6F2A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF0460-8FC5-704B-8242-8BFB74D7DD65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>wrap up</t>
   </si>
@@ -104,7 +104,10 @@
     <t>Salek</t>
   </si>
   <si>
-    <t>Optimize</t>
+    <t>Liwen &amp; Sara &amp; Salek</t>
+  </si>
+  <si>
+    <t>Optimization</t>
   </si>
 </sst>
 </file>
@@ -337,11 +340,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -352,8 +352,11 @@
     <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +683,7 @@
   <dimension ref="A1:DN26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -773,157 +776,157 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="26">
         <v>44290</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="14" spans="1:118" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <f>G15</f>
         <v>44290</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23">
         <f t="shared" ref="N14" si="0">N15</f>
         <v>44297</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="24">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="23">
         <f t="shared" ref="U14" si="1">U15</f>
         <v>44304</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="24">
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="23">
         <f t="shared" ref="AB14" si="2">AB15</f>
         <v>44311</v>
       </c>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="24">
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="23">
         <f t="shared" ref="AI14" si="3">AI15</f>
         <v>44318</v>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="24">
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="23">
         <f t="shared" ref="AP14" si="4">AP15</f>
         <v>44325</v>
       </c>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="24">
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="23">
         <f t="shared" ref="AW14" si="5">AW15</f>
         <v>44332</v>
       </c>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="24">
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="23">
         <f t="shared" ref="BD14" si="6">BD15</f>
         <v>44339</v>
       </c>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="24">
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="23">
         <f>BK15</f>
         <v>44346</v>
       </c>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="26"/>
-      <c r="BR14" s="24">
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="23">
         <f t="shared" ref="BR14" si="7">BR15</f>
         <v>44353</v>
       </c>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="25"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="BX14" s="26"/>
-      <c r="BY14" s="24">
+      <c r="BS14" s="24"/>
+      <c r="BT14" s="24"/>
+      <c r="BU14" s="24"/>
+      <c r="BV14" s="24"/>
+      <c r="BW14" s="24"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="23">
         <f t="shared" ref="BY14" si="8">BY15</f>
         <v>44360</v>
       </c>
-      <c r="BZ14" s="25"/>
-      <c r="CA14" s="25"/>
-      <c r="CB14" s="25"/>
-      <c r="CC14" s="25"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="26"/>
-      <c r="CF14" s="27"/>
-      <c r="CG14" s="27"/>
-      <c r="CH14" s="27"/>
-      <c r="CI14" s="27"/>
-      <c r="CJ14" s="27"/>
-      <c r="CK14" s="27"/>
-      <c r="CL14" s="27"/>
-      <c r="CM14" s="27"/>
-      <c r="CN14" s="27"/>
-      <c r="CO14" s="27"/>
-      <c r="CP14" s="27"/>
-      <c r="CQ14" s="27"/>
-      <c r="CR14" s="27"/>
-      <c r="CS14" s="27"/>
-      <c r="CT14" s="27"/>
-      <c r="CU14" s="27"/>
-      <c r="CV14" s="27"/>
-      <c r="CW14" s="27"/>
-      <c r="CX14" s="27"/>
-      <c r="CY14" s="27"/>
-      <c r="CZ14" s="27"/>
-      <c r="DA14" s="27"/>
-      <c r="DB14" s="27"/>
-      <c r="DC14" s="27"/>
-      <c r="DD14" s="27"/>
-      <c r="DE14" s="27"/>
-      <c r="DF14" s="27"/>
-      <c r="DG14" s="27"/>
-      <c r="DH14" s="27"/>
-      <c r="DI14" s="27"/>
-      <c r="DJ14" s="27"/>
-      <c r="DK14" s="27"/>
-      <c r="DL14" s="27"/>
-      <c r="DM14" s="27"/>
-      <c r="DN14" s="27"/>
+      <c r="BZ14" s="24"/>
+      <c r="CA14" s="24"/>
+      <c r="CB14" s="24"/>
+      <c r="CC14" s="24"/>
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="25"/>
+      <c r="CF14" s="22"/>
+      <c r="CG14" s="22"/>
+      <c r="CH14" s="22"/>
+      <c r="CI14" s="22"/>
+      <c r="CJ14" s="22"/>
+      <c r="CK14" s="22"/>
+      <c r="CL14" s="22"/>
+      <c r="CM14" s="22"/>
+      <c r="CN14" s="22"/>
+      <c r="CO14" s="22"/>
+      <c r="CP14" s="22"/>
+      <c r="CQ14" s="22"/>
+      <c r="CR14" s="22"/>
+      <c r="CS14" s="22"/>
+      <c r="CT14" s="22"/>
+      <c r="CU14" s="22"/>
+      <c r="CV14" s="22"/>
+      <c r="CW14" s="22"/>
+      <c r="CX14" s="22"/>
+      <c r="CY14" s="22"/>
+      <c r="CZ14" s="22"/>
+      <c r="DA14" s="22"/>
+      <c r="DB14" s="22"/>
+      <c r="DC14" s="22"/>
+      <c r="DD14" s="22"/>
+      <c r="DE14" s="22"/>
+      <c r="DF14" s="22"/>
+      <c r="DG14" s="22"/>
+      <c r="DH14" s="22"/>
+      <c r="DI14" s="22"/>
+      <c r="DJ14" s="22"/>
+      <c r="DK14" s="22"/>
+      <c r="DL14" s="22"/>
+      <c r="DM14" s="22"/>
+      <c r="DN14" s="22"/>
     </row>
     <row r="15" spans="1:118" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1889,13 +1892,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="19">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="9">
         <v>44300</v>
       </c>
       <c r="E19" s="9">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
@@ -2149,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="19">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D21" s="9">
         <v>44307</v>
@@ -2275,12 +2278,14 @@
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E22" s="9">
         <v>44335</v>
@@ -2401,14 +2406,16 @@
     </row>
     <row r="23" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
       <c r="C23" s="19">
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="E23" s="9">
         <v>44342</v>
@@ -2531,7 +2538,9 @@
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C24" s="19">
         <v>0</v>
       </c>
@@ -2913,12 +2922,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CM14:CS14"/>
-    <mergeCell ref="CT14:CZ14"/>
-    <mergeCell ref="DA14:DG14"/>
-    <mergeCell ref="DH14:DN14"/>
-    <mergeCell ref="BY14:CE14"/>
-    <mergeCell ref="CF14:CL14"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="BD14:BJ14"/>
@@ -2930,6 +2933,12 @@
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="AI14:AO14"/>
     <mergeCell ref="AP14:AV14"/>
+    <mergeCell ref="CM14:CS14"/>
+    <mergeCell ref="CT14:CZ14"/>
+    <mergeCell ref="DA14:DG14"/>
+    <mergeCell ref="DH14:DN14"/>
+    <mergeCell ref="BY14:CE14"/>
+    <mergeCell ref="CF14:CL14"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:CE26">
     <cfRule type="expression" dxfId="0" priority="2">

--- a/docs/Gantt CHart- Cargill team -P (1).xlsx
+++ b/docs/Gantt CHart- Cargill team -P (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liwenxing/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/Capstone-Cargill/ADME-modeling-for-Cargill/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF0460-8FC5-704B-8242-8BFB74D7DD65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B518E1-4B33-0B4F-B5F9-54D84632AD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00496AEF-0AE4-9643-AF50-0CFD7C8EF3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>wrap up</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>TASK</t>
   </si>
@@ -86,9 +83,6 @@
     <t>Liwen &amp; Sara</t>
   </si>
   <si>
-    <t>Yuxuan &amp; Salek</t>
-  </si>
-  <si>
     <t>PROJECT TITLE</t>
   </si>
   <si>
@@ -107,7 +101,10 @@
     <t>Liwen &amp; Sara &amp; Salek</t>
   </si>
   <si>
-    <t>Optimization</t>
+    <t>Natural products test</t>
+  </si>
+  <si>
+    <t>Wrap up</t>
   </si>
 </sst>
 </file>
@@ -340,8 +337,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -352,11 +352,8 @@
     <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +680,7 @@
   <dimension ref="A1:DN26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -702,10 +699,10 @@
   <sheetData>
     <row r="1" spans="1:118" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -714,10 +711,10 @@
     </row>
     <row r="2" spans="1:118" ht="25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -774,159 +771,159 @@
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="26">
-        <v>44290</v>
-      </c>
-      <c r="E12" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="22">
+        <v>44291</v>
+      </c>
+      <c r="E12" s="23"/>
     </row>
     <row r="14" spans="1:118" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <f>G15</f>
-        <v>44290</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="23">
+        <v>44291</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24">
         <f t="shared" ref="N14" si="0">N15</f>
-        <v>44297</v>
-      </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="23">
+        <v>44298</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="24">
         <f t="shared" ref="U14" si="1">U15</f>
-        <v>44304</v>
-      </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="23">
+        <v>44305</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="24">
         <f t="shared" ref="AB14" si="2">AB15</f>
-        <v>44311</v>
-      </c>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="23">
+        <v>44312</v>
+      </c>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="24">
         <f t="shared" ref="AI14" si="3">AI15</f>
-        <v>44318</v>
-      </c>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="23">
+        <v>44319</v>
+      </c>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="24">
         <f t="shared" ref="AP14" si="4">AP15</f>
-        <v>44325</v>
-      </c>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="23">
+        <v>44326</v>
+      </c>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="24">
         <f t="shared" ref="AW14" si="5">AW15</f>
-        <v>44332</v>
-      </c>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="23">
+        <v>44333</v>
+      </c>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="24">
         <f t="shared" ref="BD14" si="6">BD15</f>
-        <v>44339</v>
-      </c>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="23">
+        <v>44340</v>
+      </c>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="24">
         <f>BK15</f>
-        <v>44346</v>
-      </c>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="24"/>
-      <c r="BO14" s="24"/>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="25"/>
-      <c r="BR14" s="23">
+        <v>44347</v>
+      </c>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="24">
         <f t="shared" ref="BR14" si="7">BR15</f>
-        <v>44353</v>
-      </c>
-      <c r="BS14" s="24"/>
-      <c r="BT14" s="24"/>
-      <c r="BU14" s="24"/>
-      <c r="BV14" s="24"/>
-      <c r="BW14" s="24"/>
-      <c r="BX14" s="25"/>
-      <c r="BY14" s="23">
+        <v>44354</v>
+      </c>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="24">
         <f t="shared" ref="BY14" si="8">BY15</f>
-        <v>44360</v>
-      </c>
-      <c r="BZ14" s="24"/>
-      <c r="CA14" s="24"/>
-      <c r="CB14" s="24"/>
-      <c r="CC14" s="24"/>
-      <c r="CD14" s="24"/>
-      <c r="CE14" s="25"/>
-      <c r="CF14" s="22"/>
-      <c r="CG14" s="22"/>
-      <c r="CH14" s="22"/>
-      <c r="CI14" s="22"/>
-      <c r="CJ14" s="22"/>
-      <c r="CK14" s="22"/>
-      <c r="CL14" s="22"/>
-      <c r="CM14" s="22"/>
-      <c r="CN14" s="22"/>
-      <c r="CO14" s="22"/>
-      <c r="CP14" s="22"/>
-      <c r="CQ14" s="22"/>
-      <c r="CR14" s="22"/>
-      <c r="CS14" s="22"/>
-      <c r="CT14" s="22"/>
-      <c r="CU14" s="22"/>
-      <c r="CV14" s="22"/>
-      <c r="CW14" s="22"/>
-      <c r="CX14" s="22"/>
-      <c r="CY14" s="22"/>
-      <c r="CZ14" s="22"/>
-      <c r="DA14" s="22"/>
-      <c r="DB14" s="22"/>
-      <c r="DC14" s="22"/>
-      <c r="DD14" s="22"/>
-      <c r="DE14" s="22"/>
-      <c r="DF14" s="22"/>
-      <c r="DG14" s="22"/>
-      <c r="DH14" s="22"/>
-      <c r="DI14" s="22"/>
-      <c r="DJ14" s="22"/>
-      <c r="DK14" s="22"/>
-      <c r="DL14" s="22"/>
-      <c r="DM14" s="22"/>
-      <c r="DN14" s="22"/>
+        <v>44361</v>
+      </c>
+      <c r="BZ14" s="25"/>
+      <c r="CA14" s="25"/>
+      <c r="CB14" s="25"/>
+      <c r="CC14" s="25"/>
+      <c r="CD14" s="25"/>
+      <c r="CE14" s="26"/>
+      <c r="CF14" s="27"/>
+      <c r="CG14" s="27"/>
+      <c r="CH14" s="27"/>
+      <c r="CI14" s="27"/>
+      <c r="CJ14" s="27"/>
+      <c r="CK14" s="27"/>
+      <c r="CL14" s="27"/>
+      <c r="CM14" s="27"/>
+      <c r="CN14" s="27"/>
+      <c r="CO14" s="27"/>
+      <c r="CP14" s="27"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="27"/>
+      <c r="CS14" s="27"/>
+      <c r="CT14" s="27"/>
+      <c r="CU14" s="27"/>
+      <c r="CV14" s="27"/>
+      <c r="CW14" s="27"/>
+      <c r="CX14" s="27"/>
+      <c r="CY14" s="27"/>
+      <c r="CZ14" s="27"/>
+      <c r="DA14" s="27"/>
+      <c r="DB14" s="27"/>
+      <c r="DC14" s="27"/>
+      <c r="DD14" s="27"/>
+      <c r="DE14" s="27"/>
+      <c r="DF14" s="27"/>
+      <c r="DG14" s="27"/>
+      <c r="DH14" s="27"/>
+      <c r="DI14" s="27"/>
+      <c r="DJ14" s="27"/>
+      <c r="DK14" s="27"/>
+      <c r="DL14" s="27"/>
+      <c r="DM14" s="27"/>
+      <c r="DN14" s="27"/>
     </row>
     <row r="15" spans="1:118" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -937,299 +934,299 @@
       <c r="F15" s="3"/>
       <c r="G15" s="16">
         <f>$D$12</f>
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="H15" s="10">
         <f>G15+1</f>
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" ref="I15:BT15" si="9">H15+1</f>
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="9"/>
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="9"/>
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="9"/>
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="9"/>
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="N15" s="16">
         <f t="shared" si="9"/>
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="9"/>
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="Q15" s="10">
         <f t="shared" si="9"/>
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" si="9"/>
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="9"/>
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="T15" s="17">
         <f t="shared" si="9"/>
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="9"/>
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="V15" s="10">
         <f t="shared" si="9"/>
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="9"/>
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="X15" s="10">
         <f t="shared" si="9"/>
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="Y15" s="10">
         <f t="shared" si="9"/>
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="Z15" s="10">
         <f t="shared" si="9"/>
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="AA15" s="17">
         <f t="shared" si="9"/>
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="AB15" s="16">
         <f t="shared" si="9"/>
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="AC15" s="10">
         <f t="shared" si="9"/>
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="AD15" s="10">
         <f t="shared" si="9"/>
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="AE15" s="10">
         <f t="shared" si="9"/>
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="AF15" s="10">
         <f t="shared" si="9"/>
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="AG15" s="10">
         <f t="shared" si="9"/>
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="AH15" s="17">
         <f t="shared" si="9"/>
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="AI15" s="16">
         <f t="shared" si="9"/>
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="AJ15" s="10">
         <f t="shared" si="9"/>
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="AK15" s="10">
         <f t="shared" si="9"/>
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="AL15" s="10">
         <f t="shared" si="9"/>
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="AM15" s="10">
         <f t="shared" si="9"/>
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="AN15" s="10">
         <f t="shared" si="9"/>
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="AO15" s="17">
         <f t="shared" si="9"/>
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="AP15" s="16">
         <f t="shared" si="9"/>
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="AQ15" s="10">
         <f t="shared" si="9"/>
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="AR15" s="10">
         <f t="shared" si="9"/>
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="AS15" s="10">
         <f t="shared" si="9"/>
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="AT15" s="10">
         <f t="shared" si="9"/>
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="AU15" s="10">
         <f t="shared" si="9"/>
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="AV15" s="17">
         <f t="shared" si="9"/>
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="AW15" s="16">
         <f t="shared" si="9"/>
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="AX15" s="10">
         <f t="shared" si="9"/>
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="AY15" s="10">
         <f t="shared" si="9"/>
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="AZ15" s="10">
         <f t="shared" si="9"/>
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="BA15" s="10">
         <f t="shared" si="9"/>
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="BB15" s="10">
         <f t="shared" si="9"/>
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="BC15" s="17">
         <f t="shared" si="9"/>
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="BD15" s="16">
         <f t="shared" si="9"/>
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="BE15" s="10">
         <f t="shared" si="9"/>
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="BF15" s="10">
         <f t="shared" si="9"/>
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="BG15" s="10">
         <f t="shared" si="9"/>
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="BH15" s="10">
         <f t="shared" si="9"/>
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="BI15" s="10">
         <f t="shared" si="9"/>
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="BJ15" s="17">
         <f t="shared" si="9"/>
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="BK15" s="16">
         <f t="shared" si="9"/>
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="BL15" s="10">
         <f t="shared" si="9"/>
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="BM15" s="10">
         <f t="shared" si="9"/>
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="BN15" s="10">
         <f t="shared" si="9"/>
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="BO15" s="10">
         <f t="shared" si="9"/>
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="BP15" s="10">
         <f t="shared" si="9"/>
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="BQ15" s="17">
         <f t="shared" si="9"/>
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="BR15" s="16">
         <f t="shared" si="9"/>
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="BS15" s="10">
         <f t="shared" si="9"/>
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="BT15" s="10">
         <f t="shared" si="9"/>
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="BU15" s="10">
         <f t="shared" ref="BU15:CB15" si="10">BT15+1</f>
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="BV15" s="10">
         <f t="shared" si="10"/>
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="BW15" s="10">
         <f t="shared" si="10"/>
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="BX15" s="17">
         <f t="shared" si="10"/>
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="BY15" s="16">
         <f t="shared" si="10"/>
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="BZ15" s="10">
         <f t="shared" si="10"/>
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="CA15" s="10">
         <f t="shared" si="10"/>
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="CB15" s="10">
         <f t="shared" si="10"/>
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="CC15" s="10">
         <v>44364</v>
@@ -1278,44 +1275,44 @@
     </row>
     <row r="16" spans="1:118" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>2</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>3</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11" t="str">
         <f>LEFT(TEXT(G15,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="H16" s="11" t="str">
         <f t="shared" ref="H16:N16" si="11">LEFT(TEXT(H15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I16" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="J16" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="K16" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="L16" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="M16" s="11" t="str">
         <f t="shared" si="11"/>
@@ -1323,27 +1320,27 @@
       </c>
       <c r="N16" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="O16" s="11" t="str">
         <f t="shared" ref="O16" si="12">LEFT(TEXT(O15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="P16" s="11" t="str">
         <f t="shared" ref="P16" si="13">LEFT(TEXT(P15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Q16" s="11" t="str">
         <f t="shared" ref="Q16" si="14">LEFT(TEXT(Q15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="R16" s="11" t="str">
         <f t="shared" ref="R16" si="15">LEFT(TEXT(R15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="S16" s="11" t="str">
         <f t="shared" ref="S16" si="16">LEFT(TEXT(S15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="T16" s="11" t="str">
         <f t="shared" ref="T16:U16" si="17">LEFT(TEXT(T15,"ddd"),1)</f>
@@ -1351,27 +1348,27 @@
       </c>
       <c r="U16" s="11" t="str">
         <f t="shared" si="17"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="V16" s="11" t="str">
         <f t="shared" ref="V16" si="18">LEFT(TEXT(V15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="W16" s="11" t="str">
         <f t="shared" ref="W16" si="19">LEFT(TEXT(W15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="X16" s="11" t="str">
         <f t="shared" ref="X16" si="20">LEFT(TEXT(X15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Y16" s="11" t="str">
         <f t="shared" ref="Y16" si="21">LEFT(TEXT(Y15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Z16" s="11" t="str">
         <f t="shared" ref="Z16" si="22">LEFT(TEXT(Z15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AA16" s="11" t="str">
         <f t="shared" ref="AA16:AB16" si="23">LEFT(TEXT(AA15,"ddd"),1)</f>
@@ -1379,27 +1376,27 @@
       </c>
       <c r="AB16" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AC16" s="11" t="str">
         <f t="shared" ref="AC16" si="24">LEFT(TEXT(AC15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AD16" s="11" t="str">
         <f t="shared" ref="AD16" si="25">LEFT(TEXT(AD15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AE16" s="11" t="str">
         <f t="shared" ref="AE16" si="26">LEFT(TEXT(AE15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AF16" s="11" t="str">
         <f t="shared" ref="AF16" si="27">LEFT(TEXT(AF15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AG16" s="11" t="str">
         <f t="shared" ref="AG16" si="28">LEFT(TEXT(AG15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AH16" s="11" t="str">
         <f t="shared" ref="AH16:AI16" si="29">LEFT(TEXT(AH15,"ddd"),1)</f>
@@ -1407,27 +1404,27 @@
       </c>
       <c r="AI16" s="11" t="str">
         <f t="shared" si="29"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AJ16" s="11" t="str">
         <f t="shared" ref="AJ16" si="30">LEFT(TEXT(AJ15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AK16" s="11" t="str">
         <f t="shared" ref="AK16" si="31">LEFT(TEXT(AK15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AL16" s="11" t="str">
         <f t="shared" ref="AL16" si="32">LEFT(TEXT(AL15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AM16" s="11" t="str">
         <f t="shared" ref="AM16" si="33">LEFT(TEXT(AM15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AN16" s="11" t="str">
         <f t="shared" ref="AN16" si="34">LEFT(TEXT(AN15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AO16" s="11" t="str">
         <f t="shared" ref="AO16:AP16" si="35">LEFT(TEXT(AO15,"ddd"),1)</f>
@@ -1435,27 +1432,27 @@
       </c>
       <c r="AP16" s="11" t="str">
         <f t="shared" si="35"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AQ16" s="11" t="str">
         <f t="shared" ref="AQ16" si="36">LEFT(TEXT(AQ15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AR16" s="11" t="str">
         <f t="shared" ref="AR16" si="37">LEFT(TEXT(AR15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AS16" s="11" t="str">
         <f t="shared" ref="AS16" si="38">LEFT(TEXT(AS15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AT16" s="11" t="str">
         <f t="shared" ref="AT16" si="39">LEFT(TEXT(AT15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AU16" s="11" t="str">
         <f t="shared" ref="AU16" si="40">LEFT(TEXT(AU15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AV16" s="11" t="str">
         <f t="shared" ref="AV16:AW16" si="41">LEFT(TEXT(AV15,"ddd"),1)</f>
@@ -1463,27 +1460,27 @@
       </c>
       <c r="AW16" s="11" t="str">
         <f t="shared" si="41"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AX16" s="11" t="str">
         <f t="shared" ref="AX16" si="42">LEFT(TEXT(AX15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AY16" s="11" t="str">
         <f t="shared" ref="AY16" si="43">LEFT(TEXT(AY15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AZ16" s="11" t="str">
         <f t="shared" ref="AZ16" si="44">LEFT(TEXT(AZ15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BA16" s="11" t="str">
         <f t="shared" ref="BA16" si="45">LEFT(TEXT(BA15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BB16" s="11" t="str">
         <f t="shared" ref="BB16" si="46">LEFT(TEXT(BB15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BC16" s="11" t="str">
         <f t="shared" ref="BC16:BD16" si="47">LEFT(TEXT(BC15,"ddd"),1)</f>
@@ -1491,27 +1488,27 @@
       </c>
       <c r="BD16" s="11" t="str">
         <f t="shared" si="47"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BE16" s="11" t="str">
         <f t="shared" ref="BE16" si="48">LEFT(TEXT(BE15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BF16" s="11" t="str">
         <f t="shared" ref="BF16" si="49">LEFT(TEXT(BF15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BG16" s="11" t="str">
         <f t="shared" ref="BG16" si="50">LEFT(TEXT(BG15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BH16" s="11" t="str">
         <f t="shared" ref="BH16" si="51">LEFT(TEXT(BH15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BI16" s="11" t="str">
         <f t="shared" ref="BI16" si="52">LEFT(TEXT(BI15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BJ16" s="11" t="str">
         <f t="shared" ref="BJ16" si="53">LEFT(TEXT(BJ15,"ddd"),1)</f>
@@ -1519,27 +1516,27 @@
       </c>
       <c r="BK16" s="11" t="str">
         <f>LEFT(TEXT(BK15,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BL16" s="11" t="str">
         <f t="shared" ref="BL16" si="54">LEFT(TEXT(BL15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BM16" s="11" t="str">
         <f t="shared" ref="BM16" si="55">LEFT(TEXT(BM15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BN16" s="11" t="str">
         <f t="shared" ref="BN16" si="56">LEFT(TEXT(BN15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BO16" s="11" t="str">
         <f t="shared" ref="BO16" si="57">LEFT(TEXT(BO15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BP16" s="11" t="str">
         <f t="shared" ref="BP16" si="58">LEFT(TEXT(BP15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BQ16" s="11" t="str">
         <f t="shared" ref="BQ16" si="59">LEFT(TEXT(BQ15,"ddd"),1)</f>
@@ -1547,27 +1544,27 @@
       </c>
       <c r="BR16" s="11" t="str">
         <f t="shared" ref="BR16" si="60">LEFT(TEXT(BR15,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BS16" s="11" t="str">
         <f t="shared" ref="BS16" si="61">LEFT(TEXT(BS15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BT16" s="11" t="str">
         <f t="shared" ref="BT16" si="62">LEFT(TEXT(BT15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BU16" s="11" t="str">
         <f t="shared" ref="BU16" si="63">LEFT(TEXT(BU15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BV16" s="11" t="str">
         <f t="shared" ref="BV16" si="64">LEFT(TEXT(BV15,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BW16" s="11" t="str">
         <f t="shared" ref="BW16" si="65">LEFT(TEXT(BW15,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BX16" s="11" t="str">
         <f t="shared" ref="BX16" si="66">LEFT(TEXT(BX15,"ddd"),1)</f>
@@ -1575,19 +1572,19 @@
       </c>
       <c r="BY16" s="11" t="str">
         <f t="shared" ref="BY16" si="67">LEFT(TEXT(BY15,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BZ16" s="11" t="str">
         <f t="shared" ref="BZ16" si="68">LEFT(TEXT(BZ15,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="CA16" s="11" t="str">
         <f t="shared" ref="CA16" si="69">LEFT(TEXT(CA15,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="CB16" s="11" t="str">
         <f t="shared" ref="CB16" si="70">LEFT(TEXT(CB15,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="CC16" s="11" t="str">
         <f t="shared" ref="CC16" si="71">LEFT(TEXT(CC15,"ddd"),1)</f>
@@ -1759,7 +1756,7 @@
     </row>
     <row r="18" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
@@ -1886,19 +1883,19 @@
     </row>
     <row r="19" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9">
         <v>44300</v>
       </c>
       <c r="E19" s="9">
-        <v>44332</v>
+        <v>44338</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
@@ -2016,10 +2013,10 @@
     </row>
     <row r="20" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="19">
         <v>1</v>
@@ -2146,19 +2143,19 @@
     </row>
     <row r="21" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9">
         <v>44307</v>
       </c>
       <c r="E21" s="9">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -2276,19 +2273,19 @@
     </row>
     <row r="22" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="19">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D22" s="9">
         <v>44328</v>
       </c>
       <c r="E22" s="9">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -2406,19 +2403,19 @@
     </row>
     <row r="23" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <v>44335</v>
+        <v>44343</v>
       </c>
       <c r="E23" s="9">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -2536,19 +2533,19 @@
     </row>
     <row r="24" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="9">
-        <v>44328</v>
+        <v>44338</v>
       </c>
       <c r="E24" s="9">
-        <v>44344</v>
+        <v>44352</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="25" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="19">
@@ -2676,7 +2673,7 @@
         <v>44344</v>
       </c>
       <c r="E25" s="9">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
@@ -2794,7 +2791,7 @@
     </row>
     <row r="26" spans="1:118" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="19">
@@ -2922,6 +2919,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CM14:CS14"/>
+    <mergeCell ref="CT14:CZ14"/>
+    <mergeCell ref="DA14:DG14"/>
+    <mergeCell ref="DH14:DN14"/>
+    <mergeCell ref="BY14:CE14"/>
+    <mergeCell ref="CF14:CL14"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="BD14:BJ14"/>
@@ -2933,12 +2936,6 @@
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="AI14:AO14"/>
     <mergeCell ref="AP14:AV14"/>
-    <mergeCell ref="CM14:CS14"/>
-    <mergeCell ref="CT14:CZ14"/>
-    <mergeCell ref="DA14:DG14"/>
-    <mergeCell ref="DH14:DN14"/>
-    <mergeCell ref="BY14:CE14"/>
-    <mergeCell ref="CF14:CL14"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:CE26">
     <cfRule type="expression" dxfId="0" priority="2">
